--- a/biology/Neurosciences/Système_nerveux_autonome/Système_nerveux_autonome.xlsx
+++ b/biology/Neurosciences/Système_nerveux_autonome/Système_nerveux_autonome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_nerveux_autonome</t>
+          <t>Système_nerveux_autonome</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le système nerveux autonome, aussi appelé système neurovégétatif, est la partie du système nerveux périphérique responsable des fonctions non soumises au contrôle volontaire[1]. Il contrôle notamment les muscles lisses (digestion, vascularisation...), les muscles cardiaques, la majorité des glandes exocrines (digestion, sudation...) et certaines glandes endocrines. Le système nerveux autonome contient aussi bien des neurones périphériques que des neurones centraux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le système nerveux autonome, aussi appelé système neurovégétatif, est la partie du système nerveux périphérique responsable des fonctions non soumises au contrôle volontaire. Il contrôle notamment les muscles lisses (digestion, vascularisation...), les muscles cardiaques, la majorité des glandes exocrines (digestion, sudation...) et certaines glandes endocrines. Le système nerveux autonome contient aussi bien des neurones périphériques que des neurones centraux.
 Il est composé de voies afférentes (composées par les ganglions sensoriels crâniens) relayant les informations sensitives, comme les mesures de la pression artérielle ou de la teneur en oxygène du sang. Ces informations convergent au niveau d'un centre intégrateur, le noyau du tractus solitaire, situé dans le système nerveux central. Celui-ci envoie des informations dans les voies efférentes pour modifier par exemple la dilatation des bronches ou la libération de sucs digestifs. 
-La partie efférente du système nerveux autonome est divisée en deux composantes aux fonctions antagonistes, le système nerveux orthosympathique et le système nerveux parasympathique. L'appartenance du système nerveux entérique au système nerveux autonome est discutée[2],[3].
+La partie efférente du système nerveux autonome est divisée en deux composantes aux fonctions antagonistes, le système nerveux orthosympathique et le système nerveux parasympathique. L'appartenance du système nerveux entérique au système nerveux autonome est discutée,.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_nerveux_autonome</t>
+          <t>Système_nerveux_autonome</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,16 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le maintien de l’équilibre du milieu intérieur, ou homéostasie, implique des interactions complexes entre des aspects physiologiques et comportementaux. C'est Langley qui, en 1903, introduit la notion de système nerveux autonome pour décrire la composante du système nerveux chargée de cette fonction, en opposition à des neurones contrôlant volontairement ou consciemment des fonctions telles que le mouvement d’un membre. Langley décrivait le système nerveux autonome comme essentiellement moteur, régulant les glandes sécrétrices, les muscles cardiaques et les muscles lisses des viscères et des vaisseaux sanguins. Il n’y intégrait pas les fibres afférentes (sensitives) qu’il considérait comme mineures et purement somatiques (relayant principalement les sensations comme la douleur).
-Cette vision ancienne d’un système nerveux autonome principalement moteur persiste encore. On sait cependant aujourd’hui que la majorité des fibres contenues dans le nerf vague, par exemple, sont sensitives et relaient les sensations viscérales impliquées dans l’homéostasie. Cette nomenclature a de plus été remise en cause, au profit du terme de système nerveux viscéral (Blessing[4], 1997). Ce terme de système nerveux viscéral est plus approprié car : 
+Cette vision ancienne d’un système nerveux autonome principalement moteur persiste encore. On sait cependant aujourd’hui que la majorité des fibres contenues dans le nerf vague, par exemple, sont sensitives et relaient les sensations viscérales impliquées dans l’homéostasie. Cette nomenclature a de plus été remise en cause, au profit du terme de système nerveux viscéral (Blessing, 1997). Ce terme de système nerveux viscéral est plus approprié car : 
 il caractérise fonctionnellement les neurones qui le composent ;
 le système nerveux viscéral dépend du :
 système nerveux central avec, d'une part, la régulation opérée par l'hypothalamus, le tronc cérébral et le système limbique, d'autre part, l'influence des émotions,
-système nerveux somatique avec les afférences des organes des sens, des extérocepteurs et des propriocepteurs[5].</t>
+système nerveux somatique avec les afférences des organes des sens, des extérocepteurs et des propriocepteurs.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_nerveux_autonome</t>
+          <t>Système_nerveux_autonome</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,22 +562,207 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le SNA forme  le système nerveux périphérique, conjointement avec le système nerveux somatique et le système nerveux entérique[6]. 
-Comparaison entre les systèmes nerveux autonome et somatique
-Ce comparatif [7]entre les deux principales composantes du système nerveux périphérique permet de saisir leur spécificité.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le SNA forme  le système nerveux périphérique, conjointement avec le système nerveux somatique et le système nerveux entérique. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Système_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Comparaison entre les systèmes nerveux autonome et somatique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce comparatif entre les deux principales composantes du système nerveux périphérique permet de saisir leur spécificité.
 Le SNA peut être divisé en voie sensitive et voie motrice.
-Voie sensitive
-Sur le plan sensoriel, il traite, via des récepteurs sensoriels autonomes, les informations en provenance de la sensibilité viscérale (ou intéroceptive) : pression sanguine, dilatation des intestins...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Système_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voie sensitive</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur le plan sensoriel, il traite, via des récepteurs sensoriels autonomes, les informations en provenance de la sensibilité viscérale (ou intéroceptive) : pression sanguine, dilatation des intestins...
 Il reçoit aussi des messages en provenance des afférences du système nerveux somatique (5 sens, neurones sensitifs somatiques).
-Voie motrice
-La partie motrice est composée des systèmes sympathique  et parasympathique[8]. Leurs rôles sont différents : ils exercent généralement des effets antagonistes (mais parfois coordonnés voire synergiques[9]) sur les mêmes organes cibles[10]. Leur organisation ainsi que les neurotransmetteurs libérés sont également différents.
-Similitudes entre les systèmes sympathique et parasympathique
-La voie efférente du SNA, qui innerve les différents organes, est constituée de deux neurones l'un à la suite de l'autre, le corps cellulaire du premier étant situé dans la substance grise du système nerveux central ou SNC. Il s'agit du neurone pré-ganglionnaire et son axone sort du SNC pour rejoindre un ganglion dans lequel il entre en contact avec un second neurone. Ce contact est créé par une synapse. Ce neurone, dit ganglionnaire ou post-ganglionnaire envoie son axone vers l'organe cible, avec qui il forme une seconde (et dernière) synapse. Cependant, le qualificatif "post" ganglionnaire n’est pas correct vis-à-vis du neurone car celui-ci dépend de la localisation du corps cellulaire, et non pas celle de l’axone.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Système_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Voie motrice</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie motrice est composée des systèmes sympathique  et parasympathique. Leurs rôles sont différents : ils exercent généralement des effets antagonistes (mais parfois coordonnés voire synergiques) sur les mêmes organes cibles. Leur organisation ainsi que les neurotransmetteurs libérés sont également différents.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Système_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Voie motrice</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Similitudes entre les systèmes sympathique et parasympathique</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La voie efférente du SNA, qui innerve les différents organes, est constituée de deux neurones l'un à la suite de l'autre, le corps cellulaire du premier étant situé dans la substance grise du système nerveux central ou SNC. Il s'agit du neurone pré-ganglionnaire et son axone sort du SNC pour rejoindre un ganglion dans lequel il entre en contact avec un second neurone. Ce contact est créé par une synapse. Ce neurone, dit ganglionnaire ou post-ganglionnaire envoie son axone vers l'organe cible, avec qui il forme une seconde (et dernière) synapse. Cependant, le qualificatif "post" ganglionnaire n’est pas correct vis-à-vis du neurone car celui-ci dépend de la localisation du corps cellulaire, et non pas celle de l’axone.
 De plus, les axones des neurones sympathiques et parasympathiques forment des réseaux nommés plexus. On les trouve dans le thorax, l'abdomen et le pelvis. Des axones de neurones sensitifs autonomes, ainsi que des ganglions sympathiques font également partie des plexus.
-Différences entre les systèmes sympathique et parasympathique
-De manière schématique, la structure du système sympathique est plus complexe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Système_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Voie motrice</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Différences entre les systèmes sympathique et parasympathique</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De manière schématique, la structure du système sympathique est plus complexe.
 Localisation des 2 corps cellulaires
 La localisation des corps cellulaires de ces neurones est différente entre les systèmes sympathique et parasympathique :
 les neurones pré-ganglionnaires sympathiques sont situés dans la corne intermédio-latérale de la moelle épinière thoracique et lombaire. Les neurones ganglionnaires sympathiques sont situés :
@@ -590,38 +789,110 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Syst%C3%A8me_nerveux_autonome</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_nerveux_autonome</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Système_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Neurotransmetteurs et récepteurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le message nerveux transite entre les deux neurones sous forme électrique, sauf au niveau des synapses où il est véhiculé de manière chimique par les neurotransmetteurs.
-Au niveau de la synapse neurone pré-ganglionnaire -neurone ganglionnaire
-Toutes les fibres pré-ganglionnaires, du système parasympathique et du système sympathique, sont cholinergiques, c'est-à-dire qu'elles vont libérer de l'acétylcholine (ACh) au niveau du ganglion (de la synapse). Les récepteurs au niveau de ces ganglions sont des récepteurs nicotiniques, ils sont dits nicotiniques car la nicotine est une substance qui va mimer l'action de l'ACh (c'est donc un agoniste). Une fois libérée dans la synapse, l'ACh sera dégradée très rapidement et aura donc une action courte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Système_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Neurotransmetteurs et récepteurs</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Au niveau de la synapse neurone pré-ganglionnaire -neurone ganglionnaire</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les fibres pré-ganglionnaires, du système parasympathique et du système sympathique, sont cholinergiques, c'est-à-dire qu'elles vont libérer de l'acétylcholine (ACh) au niveau du ganglion (de la synapse). Les récepteurs au niveau de ces ganglions sont des récepteurs nicotiniques, ils sont dits nicotiniques car la nicotine est une substance qui va mimer l'action de l'ACh (c'est donc un agoniste). Une fois libérée dans la synapse, l'ACh sera dégradée très rapidement et aura donc une action courte.
 Le neurotransmetteur utilisé pour les relais pré-ganglionnaires, au niveau du système parasympathique ou du système sympathique, est donc le même : l'acétylcholine. Elle agit sur des récepteurs nicotiniques, situés au niveau du ganglion. En revanche, les neurotransmetteurs des neurones ganglionnaires ne seront pas les mêmes si l'on se trouve au niveau du système parasympathique ou du système sympathique, et ils ne vont pas agir sur les mêmes récepteurs.
-Au niveau de la synapse neurone ganglionnaire-effecteur
-Dans le cas du système parasympathique, les neurones ganglionnaires libèrent aussi de l'ACh, mais elle va agir cette fois-ci sur un autre type de récepteur qui sont les récepteurs muscariniques, situés au niveau de l'organe cible. Les récepteurs muscariniques ont deux types d'effets possibles : soit un effet inhibiteur (avec les potentiels postsynaptiques inhibiteurs), soit un effet excitateur (avec les potentiels postsynaptiques excitateurs). Au niveau du système sympathique, les neurones ganglionnaires vont libérer de la noradrénaline (et non de l'adrénaline) qui va agir sur des récepteurs adrénergiques. Ces généralités connaissent cependant deux exceptions : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Système_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Neurotransmetteurs et récepteurs</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Au niveau de la synapse neurone ganglionnaire-effecteur</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cas du système parasympathique, les neurones ganglionnaires libèrent aussi de l'ACh, mais elle va agir cette fois-ci sur un autre type de récepteur qui sont les récepteurs muscariniques, situés au niveau de l'organe cible. Les récepteurs muscariniques ont deux types d'effets possibles : soit un effet inhibiteur (avec les potentiels postsynaptiques inhibiteurs), soit un effet excitateur (avec les potentiels postsynaptiques excitateurs). Au niveau du système sympathique, les neurones ganglionnaires vont libérer de la noradrénaline (et non de l'adrénaline) qui va agir sur des récepteurs adrénergiques. Ces généralités connaissent cependant deux exceptions : 
 Au niveau des glandes sudoripares, où la transmission est cholinergique. L'ACh va agir sur des récepteurs muscariniques qui se trouvent au niveau des glandes sudoripares ;
 Au niveau des glandes surrénales. Elles sont stimulées directement par les axones des neurones pré-ganglionnaires, qui sont donc cholinergiques. Les glandes surrénales possèdent des récepteurs nicotiniques. Ce sont les glandes surrénales elles-mêmes qui font office de ganglion. Quand elles sont stimulées, elles vont libérer de l'adrénaline (et non de la noradrénaline) dans le sang.
 Pour résumer, quand le neurotransmetteur est l'Ach, le récepteur est nicotinique sur le neurone ganglionnaire, et le récepteur est muscarinique sur l'effecteur. Quand le neurotransmetteur est une catécholamine, ce qui est possible seulement entre le neurone ganglionnaire et l'effecteur, le récepteur est adrénergique.
@@ -630,95 +901,138 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Syst%C3%A8me_nerveux_autonome</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_nerveux_autonome</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Système_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Effets sur différents organes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Syst%C3%A8me_nerveux_autonome</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_nerveux_autonome</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Système_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Différents rôles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Description
-Le système nerveux autonome contrôle les fonctions respiratoire, digestive et cardiovasculaire : il agit sur la motricité et les sécrétions viscérales, les glandes exocrines et endocrines et la vasomotricité. Son territoire moteur inclut donc l'ensemble des muscles lisses. 
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Le système nerveux autonome contrôle les fonctions respiratoire, digestive et cardiovasculaire : il agit sur la motricité et les sécrétions viscérales, les glandes exocrines et endocrines et la vasomotricité. Son territoire moteur inclut donc l'ensemble des muscles lisses. 
 Le système sympathique est associé à la mobilisation de l'énergie en période de stress, il est dit ergotrope. Les effets sympathiques sont la dilatation des pupilles et des bronchioles, l'augmentation du rythme cardiaque et respiratoire et de la pression sanguine. L'action du système sympathique est permanente mais primordiale en situation d'urgence.
-Le système nerveux parasympathique est dit trophotrope (repos et digestion), il économise l'énergie et maintient les activités de base à leurs niveaux copilotes.
-Explications
-Il s'agit ici d'éclairer non pas l'origine des effets, mais les différences dans la manière dont ils sont produits, comparativement entre les systèmes sympathique et parasympathique. 
+Le système nerveux parasympathique est dit trophotrope (repos et digestion), il économise l'énergie et maintient les activités de base à leurs niveaux copilotes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Système_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Différents rôles</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Explications</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit ici d'éclairer non pas l'origine des effets, mais les différences dans la manière dont ils sont produits, comparativement entre les systèmes sympathique et parasympathique. 
 Premièrement, dans le système sympathique, un neurone pré-ganglionnaire fait synapse avec plus de neurones ganglionnaires que dans le système parasympathique. De plus, au niveau du système sympathique, un neurone ganglionnaire innerve davantage d'effecteurs que dans le système parasympathique. Cette différence de divergence explique que le système sympathique sollicite plus l'organisme dans son ensemble que le système parasympathique.
 Deuxièmement, en plus de cette explication macroscopique, par l'espace, de différences d'effet, il existe une explication microscopique, par la durée. En effet, alors que l'acétylcholine est rapidement dégradée, la noradrénaline reste longtemps dans la fente synaptique. D'où une stimulation plus prolongée des effecteurs par le système sympathique, encore amplifiée par la sécrétion sanguine de catécholamines effectuée par la médullosurrénale.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Syst%C3%A8me_nerveux_autonome</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_nerveux_autonome</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Système_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_nerveux_autonome</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dérèglement du système nerveux autonome entraîne une dystonie ou dysautonomie neurovégétative.
 </t>
